--- a/relacionales.xlsx
+++ b/relacionales.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\dataleik\demo_tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D19630-677A-4114-9379-9B880252051E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95052C16-1626-471B-A5DD-B9D7A849DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="personas" sheetId="1" r:id="rId1"/>
+    <sheet name="categorias_id" sheetId="2" r:id="rId1"/>
+    <sheet name="productos_id" sheetId="4" r:id="rId2"/>
+    <sheet name="usuarios registrados" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,30 +27,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>nombre completo</t>
-  </si>
-  <si>
-    <t>cedula</t>
-  </si>
-  <si>
-    <t>correo</t>
-  </si>
-  <si>
-    <t>direccion</t>
-  </si>
-  <si>
-    <t>numero de celular</t>
-  </si>
-  <si>
-    <t>pais</t>
-  </si>
-  <si>
-    <t>departamentos</t>
-  </si>
-  <si>
-    <t>municipios</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>producto_id</t>
+  </si>
+  <si>
+    <t>categoría</t>
+  </si>
+  <si>
+    <t>producto</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>vestuario</t>
+  </si>
+  <si>
+    <t>alimento</t>
+  </si>
+  <si>
+    <t>higiene</t>
+  </si>
+  <si>
+    <t>categoria_id</t>
+  </si>
+  <si>
+    <t>camisa</t>
+  </si>
+  <si>
+    <t>jogger</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>arroz</t>
+  </si>
+  <si>
+    <t>azucar</t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>pasta dental</t>
+  </si>
+  <si>
+    <t>desodorante</t>
+  </si>
+  <si>
+    <t>talco</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Samuel Ortiz</t>
+  </si>
+  <si>
+    <t>Maria Atencia</t>
   </si>
 </sst>
 </file>
@@ -84,9 +125,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,53 +406,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE25D005-717B-4082-AC84-24FE3AE30F4A}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCED399-D12C-4039-A4F7-BBC1AFCD3338}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>300</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>302</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEF39BD-1E87-41B7-94CA-3C5C88DB3D13}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1140902612</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1153520423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/relacionales.xlsx
+++ b/relacionales.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\dataleik\demo_tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95052C16-1626-471B-A5DD-B9D7A849DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC55411-B2C5-4142-B67D-A00D21F27F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="categorias_id" sheetId="2" r:id="rId1"/>
     <sheet name="productos_id" sheetId="4" r:id="rId2"/>
-    <sheet name="usuarios registrados" sheetId="5" r:id="rId3"/>
+    <sheet name="usuarios_registrados" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE25D005-717B-4082-AC84-24FE3AE30F4A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEF39BD-1E87-41B7-94CA-3C5C88DB3D13}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/relacionales.xlsx
+++ b/relacionales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\dataleik\demo_tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC55411-B2C5-4142-B67D-A00D21F27F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89E360E-FB6D-4377-8552-533B8F33CC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="categorias_id" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>producto_id</t>
   </si>
@@ -96,8 +96,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE25D005-717B-4082-AC84-24FE3AE30F4A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,131 +463,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCED399-D12C-4039-A4F7-BBC1AFCD3338}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>25000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>102</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>200</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>201</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
         <v>202</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>300</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>301</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>12000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>302</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>8000</v>
       </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
